--- a/autoConditions/train1Block2Test.xlsx
+++ b/autoConditions/train1Block2Test.xlsx
@@ -487,15 +487,11 @@
           <t>pngimages/04_ladder.png</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +507,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/02_kitipi.wav</t>
+          <t>trainaudio/02_pitito.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,15 +515,11 @@
           <t>pngimages/02_pallet.png</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
@@ -551,15 +543,11 @@
           <t>pngimages/16_icecream.png</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train1Block2Test.xlsx
+++ b/autoConditions/train1Block2Test.xlsx
@@ -469,85 +469,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/15_kopota.wav</t>
+          <t>trainingimages/10_tokiti</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/04_kitoti.wav</t>
+          <t>trainingimages/19_papipi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/06_titoka.wav</t>
+          <t>trainingimages/09_tipata</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/02_pitito.wav</t>
+          <t>trainingimages/22_kakoki</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/23_patoko.wav</t>
+          <t>trainingimages/21_papika</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainaudio/16_kotapi.wav</t>
+          <t>trainingimages/14_pokoto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train1Block2Test.xlsx
+++ b/autoConditions/train1Block2Test.xlsx
@@ -469,50 +469,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingimages/10_tokiti</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/10_backpack.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainingimages/19_papipi</t>
+          <t>trainingaudio/01_kitipi1.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingimages/09_tipata</t>
+          <t>trainingaudio/22_kakoki1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainingimages/22_kakoki</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -525,29 +525,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingimages/21_papika</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>pngimages/18_donut.png</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>trainingaudio/21_papika1.wav</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>pngimages/21_cheese.png</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trainingimages/14_pokoto</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>pngimages/14_coffee.png</t>
-        </is>
-      </c>
       <c r="E4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
